--- a/medicine/Sexualité et sexologie/Karl-Maria_Kertbeny/Karl-Maria_Kertbeny.xlsx
+++ b/medicine/Sexualité et sexologie/Karl-Maria_Kertbeny/Karl-Maria_Kertbeny.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Karl-Maria Kertbeny ou Károly Mária Kertbeny, né Karl-Maria Benkert à Vienne le 28 février 1824 et mort à Budapest le 23 janvier 1882, est un journaliste, écrivain, traducteur et militant des droits de l'homme hongrois germanophone. Il forgea les termes allemands « Homosexual » et « Heterosexual » en 1868, et « Homosexualität » en 1869, auxquels il opposa le terme « normalsexuel ». 
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Karl-Maria Kertbeny naquit à Vienne de parents artistes. Son père, Anton Benkert, était écrivain et sa mère, Charlotte Graf, était peintre. Deux ans après sa naissance, la famille s'installa à Budapest (Hongrie) pour prendre la direction d'un hôtel.
 Alors que Kertbeny était jeune apprenti chez un libraire, un de ses amis proches, homosexuel, se suicida à la suite d'un chantage exercé sur lui. Kertbeny expliqua plus tard que c'était à la suite de cet épisode tragique qu'il avait ressenti une impérieuse nécessité à combattre cette forme d'injustice et qu'il s'était intéressé de près à l'homosexualité. Dans Corydon - Quatre dialoques socratiques, André Gide donne en 1924 une justification analogue à son entreprise (Premier dialogue, II).
@@ -551,7 +565,9 @@
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Karl Maria Kertbeny, Schriften zur Homosexualitätsforschung (présenté par Manfred Herzer), Rosa Winkel Verlag, Berlin 2000.  (ISBN 3-86149-103-6)</t>
         </is>
